--- a/File_2.xlsx
+++ b/File_2.xlsx
@@ -23,7 +23,7 @@
     <t>Class</t>
   </si>
   <si>
-    <t>fanshicai2</t>
+    <t>fanshicai_2</t>
   </si>
   <si>
     <t>3</t>
@@ -32,7 +32,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>shi</t>
+    <t>shi_2</t>
   </si>
   <si>
     <t>2</t>
@@ -108,7 +108,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="11.02734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="5.9453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.46484375" customWidth="true" bestFit="true"/>
   </cols>

--- a/File_2.xlsx
+++ b/File_2.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet_2" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -20,25 +20,16 @@
     <t>age</t>
   </si>
   <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>fanshicai_2</t>
+    <t>fancai3</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>shi_2</t>
+    <t>shi</t>
   </si>
   <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
 </sst>
 </file>
@@ -102,15 +93,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.02734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="8.31640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="5.9453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.46484375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -120,30 +110,21 @@
       <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/File_2.xlsx
+++ b/File_2.xlsx
@@ -20,7 +20,7 @@
     <t>age</t>
   </si>
   <si>
-    <t>fancai3</t>
+    <t>shicai2</t>
   </si>
   <si>
     <t>3</t>
